--- a/experimental_data/GEC/Tygstrup1954.xlsx
+++ b/experimental_data/GEC/Tygstrup1954.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="193" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="193" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
     <t>Tygstrup1954 – Kinetics of galactose elimination</t>
   </si>
@@ -35,6 +35,18 @@
     <t>galVen</t>
   </si>
   <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>age [years]</t>
+  </si>
+  <si>
     <t>peripheral blood galactose [mmole/l]</t>
   </si>
   <si>
@@ -47,16 +59,34 @@
     <t>concentration difference [mmole/L]</t>
   </si>
   <si>
-    <t>galPermg</t>
-  </si>
-  <si>
-    <t>galVenmg</t>
+    <t>age</t>
+  </si>
+  <si>
+    <t>camg</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>cvmg</t>
+  </si>
+  <si>
+    <t>cv</t>
   </si>
   <si>
     <t>diffmg</t>
   </si>
   <si>
     <t>diff</t>
+  </si>
+  <si>
+    <t>tyg1954</t>
+  </si>
+  <si>
+    <t>O.K.</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -64,13 +94,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -92,13 +123,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -131,7 +170,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -140,59 +179,59 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -239,12 +278,12 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF999999"/>
-      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -257,8 +296,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
@@ -271,7 +310,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
               <a:t>Kinetetics of galactose elimination</a:t>
             </a:r>
           </a:p>
@@ -289,29 +330,29 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$16</c:f>
+              <c:f>Sheet1!$F$16:$F$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>galPermg</c:v>
+                  <c:v>camg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$17:$A$26</c:f>
+              <c:f>Sheet1!$E$17:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -350,7 +391,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$B$26</c:f>
+              <c:f>Sheet1!$F$17:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -393,29 +434,29 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$16</c:f>
+              <c:f>Sheet1!$H$16:$H$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>galVenmg</c:v>
+                  <c:v>cvmg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$16:$A$26</c:f>
+              <c:f>Sheet1!$E$16:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -457,7 +498,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$D$26</c:f>
+              <c:f>Sheet1!$H$16:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -503,7 +544,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$16</c:f>
+              <c:f>Sheet1!$J$16:$J$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -514,18 +555,18 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffd320"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$16:$A$26</c:f>
+              <c:f>Sheet1!$E$16:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -567,7 +608,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$16:$F$26</c:f>
+              <c:f>Sheet1!$J$16:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -608,11 +649,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="64135317"/>
-        <c:axId val="25225131"/>
+        <c:axId val="86853826"/>
+        <c:axId val="8010857"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64135317"/>
+        <c:axId val="86853826"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -630,7 +671,9 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
                   <a:t>Time [min]</a:t>
                 </a:r>
               </a:p>
@@ -648,12 +691,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="25225131"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="8010857"/>
+        <c:crossesAt val="0"/>
         <c:majorUnit val="15"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25225131"/>
+        <c:axId val="8010857"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -671,7 +714,9 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
                   <a:t>galactose [mg%]</a:t>
                 </a:r>
               </a:p>
@@ -689,8 +734,8 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64135317"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="86853826"/>
+        <c:crossesAt val="0"/>
         <c:majorUnit val="50"/>
       </c:valAx>
       <c:spPr>
@@ -726,23 +771,23 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>277920</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57240</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>594720</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>373320</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="0" name="Graphics 1"/>
+        <xdr:cNvPr id="0" name="Graphics 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -753,8 +798,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5967360" y="234360"/>
-          <a:ext cx="6006240" cy="3829680"/>
+          <a:off x="8997840" y="177120"/>
+          <a:ext cx="6005880" cy="3829320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -768,16 +813,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>601200</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>717480</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>671400</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>787320</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -785,8 +830,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6290640" y="4158360"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="8032680" y="4274640"/>
+        <a:ext cx="5759280" cy="3292560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -804,10 +849,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C31" activeCellId="0" pane="topLeft" sqref="C31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="A16:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -815,7 +860,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,7 +868,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -837,7 +882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -851,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>16.251305</v>
       </c>
@@ -865,7 +910,7 @@
         <v>111.64499</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>20.985947</v>
       </c>
@@ -879,7 +924,7 @@
         <v>88.41015</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>25.53329</v>
       </c>
@@ -893,7 +938,7 @@
         <v>66.89151</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>30.513884</v>
       </c>
@@ -907,7 +952,7 @@
         <v>51.21578</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>35.660873</v>
       </c>
@@ -921,7 +966,7 @@
         <v>35.196804</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>40.464863</v>
       </c>
@@ -935,7 +980,7 @@
         <v>20.890123</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>45.439137</v>
       </c>
@@ -949,7 +994,7 @@
         <v>2.4743276</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>50.062145</v>
       </c>
@@ -963,7 +1008,7 @@
         <v>1.8933588</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>55.20233</v>
       </c>
@@ -977,7 +1022,7 @@
         <v>0.29048437</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>60.413322</v>
       </c>
@@ -991,358 +1036,502 @@
         <v>0.75486857</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="16">
-      <c r="A16" s="4" t="s">
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <f aca="false">0.5*(A4+C4)</f>
         <v>16.2722065</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <f aca="false">B4</f>
         <v>141.16368</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <f aca="false">B17/18</f>
+      <c r="G17" s="0" t="n">
+        <f aca="false">F17/18</f>
         <v>7.84242666666667</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <f aca="false">D4</f>
         <v>111.64499</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <f aca="false">D17/18</f>
+      <c r="I17" s="0" t="n">
+        <f aca="false">H17/18</f>
         <v>6.20249944444445</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <f aca="false">B17-D17</f>
+      <c r="J17" s="0" t="n">
+        <f aca="false">F17-H17</f>
         <v>29.51869</v>
       </c>
-      <c r="G17" s="0" t="n">
-        <f aca="false">C17-E17</f>
+      <c r="K17" s="0" t="n">
+        <f aca="false">G17-I17</f>
         <v>1.63992722222222</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="n">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" s="0" t="n">
         <f aca="false">0.5*(A5+C5)</f>
         <v>20.9614815</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <f aca="false">B5</f>
         <v>114.15514</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <f aca="false">B18/18</f>
+      <c r="G18" s="0" t="n">
+        <f aca="false">F18/18</f>
         <v>6.34195222222222</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <f aca="false">D5</f>
         <v>88.41015</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <f aca="false">D18/18</f>
+      <c r="I18" s="0" t="n">
+        <f aca="false">H18/18</f>
         <v>4.911675</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <f aca="false">B18-D18</f>
+      <c r="J18" s="0" t="n">
+        <f aca="false">F18-H18</f>
         <v>25.74499</v>
       </c>
-      <c r="G18" s="0" t="n">
-        <f aca="false">C18-E18</f>
+      <c r="K18" s="0" t="n">
+        <f aca="false">G18-I18</f>
         <v>1.43027722222222</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="n">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" s="0" t="n">
         <f aca="false">0.5*(A6+C6)</f>
         <v>25.5558925</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <f aca="false">B6</f>
         <v>98.81288</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <f aca="false">B19/18</f>
+      <c r="G19" s="0" t="n">
+        <f aca="false">F19/18</f>
         <v>5.48960444444445</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <f aca="false">D6</f>
         <v>66.89151</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <f aca="false">D19/18</f>
+      <c r="I19" s="0" t="n">
+        <f aca="false">H19/18</f>
         <v>3.716195</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <f aca="false">B19-D19</f>
+      <c r="J19" s="0" t="n">
+        <f aca="false">F19-H19</f>
         <v>31.92137</v>
       </c>
-      <c r="G19" s="0" t="n">
-        <f aca="false">C19-E19</f>
+      <c r="K19" s="0" t="n">
+        <f aca="false">G19-I19</f>
         <v>1.77340944444444</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="n">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E20" s="0" t="n">
         <f aca="false">0.5*(A7+C7)</f>
         <v>30.5335695</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <f aca="false">B7</f>
         <v>79.01826</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <f aca="false">B20/18</f>
+      <c r="G20" s="0" t="n">
+        <f aca="false">F20/18</f>
         <v>4.38990333333333</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <f aca="false">D7</f>
         <v>51.21578</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <f aca="false">D20/18</f>
+      <c r="I20" s="0" t="n">
+        <f aca="false">H20/18</f>
         <v>2.84532111111111</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <f aca="false">B20-D20</f>
+      <c r="J20" s="0" t="n">
+        <f aca="false">F20-H20</f>
         <v>27.80248</v>
       </c>
-      <c r="G20" s="0" t="n">
-        <f aca="false">C20-E20</f>
+      <c r="K20" s="0" t="n">
+        <f aca="false">G20-I20</f>
         <v>1.54458222222222</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="n">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E21" s="0" t="n">
         <f aca="false">0.5*(A8+C8)</f>
         <v>35.594688</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <f aca="false">B8</f>
         <v>62.31671</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <f aca="false">B21/18</f>
+      <c r="G21" s="0" t="n">
+        <f aca="false">F21/18</f>
         <v>3.46203944444444</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <f aca="false">D8</f>
         <v>35.196804</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <f aca="false">D21/18</f>
+      <c r="I21" s="0" t="n">
+        <f aca="false">H21/18</f>
         <v>1.955378</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <f aca="false">B21-D21</f>
+      <c r="J21" s="0" t="n">
+        <f aca="false">F21-H21</f>
         <v>27.119906</v>
       </c>
-      <c r="G21" s="0" t="n">
-        <f aca="false">C21-E21</f>
+      <c r="K21" s="0" t="n">
+        <f aca="false">G21-I21</f>
         <v>1.50666144444444</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="n">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E22" s="0" t="n">
         <f aca="false">0.5*(A9+C9)</f>
         <v>40.3977035</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <f aca="false">B9</f>
         <v>46.63707</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <f aca="false">B22/18</f>
+      <c r="G22" s="0" t="n">
+        <f aca="false">F22/18</f>
         <v>2.59094833333333</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <f aca="false">D9</f>
         <v>20.890123</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <f aca="false">D22/18</f>
+      <c r="I22" s="0" t="n">
+        <f aca="false">H22/18</f>
         <v>1.16056238888889</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <f aca="false">B22-D22</f>
+      <c r="J22" s="0" t="n">
+        <f aca="false">F22-H22</f>
         <v>25.746947</v>
       </c>
-      <c r="G22" s="0" t="n">
-        <f aca="false">C22-E22</f>
+      <c r="K22" s="0" t="n">
+        <f aca="false">G22-I22</f>
         <v>1.43038594444444</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="n">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E23" s="0" t="n">
         <f aca="false">0.5*(A10+C10)</f>
         <v>45.502245</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <f aca="false">B10</f>
         <v>31.304575</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <f aca="false">B23/18</f>
+      <c r="G23" s="0" t="n">
+        <f aca="false">F23/18</f>
         <v>1.73914305555556</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <f aca="false">D10</f>
         <v>2.4743276</v>
       </c>
-      <c r="E23" s="0" t="n">
-        <f aca="false">D23/18</f>
+      <c r="I23" s="0" t="n">
+        <f aca="false">H23/18</f>
         <v>0.137462644444444</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <f aca="false">B23-D23</f>
+      <c r="J23" s="0" t="n">
+        <f aca="false">F23-H23</f>
         <v>28.8302474</v>
       </c>
-      <c r="G23" s="0" t="n">
-        <f aca="false">C23-E23</f>
+      <c r="K23" s="0" t="n">
+        <f aca="false">G23-I23</f>
         <v>1.60168041111111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="n">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E24" s="0" t="n">
         <f aca="false">0.5*(A11+C11)</f>
         <v>50.1196625</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <f aca="false">B11</f>
         <v>22.829075</v>
       </c>
-      <c r="C24" s="0" t="n">
-        <f aca="false">B24/18</f>
+      <c r="G24" s="0" t="n">
+        <f aca="false">F24/18</f>
         <v>1.26828194444444</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="H24" s="0" t="n">
         <f aca="false">D11</f>
         <v>1.8933588</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <f aca="false">D24/18</f>
+      <c r="I24" s="0" t="n">
+        <f aca="false">H24/18</f>
         <v>0.1051866</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <f aca="false">B24-D24</f>
+      <c r="J24" s="0" t="n">
+        <f aca="false">F24-H24</f>
         <v>20.9357162</v>
       </c>
-      <c r="G24" s="0" t="n">
-        <f aca="false">C24-E24</f>
+      <c r="K24" s="0" t="n">
+        <f aca="false">G24-I24</f>
         <v>1.16309534444444</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="n">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E25" s="0" t="n">
         <f aca="false">0.5*(A12+C12)</f>
         <v>55.16717</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <f aca="false">B12</f>
         <v>10.932894</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <f aca="false">B25/18</f>
+      <c r="G25" s="0" t="n">
+        <f aca="false">F25/18</f>
         <v>0.607383</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <f aca="false">D12</f>
         <v>0.29048437</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <f aca="false">D25/18</f>
+      <c r="I25" s="0" t="n">
+        <f aca="false">H25/18</f>
         <v>0.0161380205555556</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <f aca="false">B25-D25</f>
+      <c r="J25" s="0" t="n">
+        <f aca="false">F25-H25</f>
         <v>10.64240963</v>
       </c>
-      <c r="G25" s="0" t="n">
-        <f aca="false">C25-E25</f>
+      <c r="K25" s="0" t="n">
+        <f aca="false">G25-I25</f>
         <v>0.591244979444444</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="n">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E26" s="0" t="n">
         <f aca="false">0.5*(A13+C13)</f>
         <v>60.419397</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <f aca="false">B13</f>
         <v>9.33588</v>
       </c>
-      <c r="C26" s="0" t="n">
-        <f aca="false">B26/18</f>
+      <c r="G26" s="0" t="n">
+        <f aca="false">F26/18</f>
         <v>0.51866</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <f aca="false">D13</f>
         <v>0.75486857</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <f aca="false">D26/18</f>
+      <c r="I26" s="0" t="n">
+        <f aca="false">H26/18</f>
         <v>0.0419371427777778</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <f aca="false">B26-D26</f>
+      <c r="J26" s="0" t="n">
+        <f aca="false">F26-H26</f>
         <v>8.58101143</v>
       </c>
-      <c r="G26" s="0" t="n">
-        <f aca="false">C26-E26</f>
+      <c r="K26" s="0" t="n">
+        <f aca="false">G26-I26</f>
         <v>0.476722857222222</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42"/>
+    <row r="36" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/experimental_data/GEC/Tygstrup1954.xlsx
+++ b/experimental_data/GEC/Tygstrup1954.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="193" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="170" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>Tygstrup1954 – Kinetics of galactose elimination</t>
   </si>
@@ -59,6 +59,18 @@
     <t>concentration difference [mmole/L]</t>
   </si>
   <si>
+    <t>Extracion Ratio (ca-cv)/ca (ER) [-]</t>
+  </si>
+  <si>
+    <t>Estimated liver bloodflow [ml/min]</t>
+  </si>
+  <si>
+    <t>Estimated clearance (F*ER) [ml/min]</t>
+  </si>
+  <si>
+    <t>Estimated galactose removal (CL*ci) [mmol/min]</t>
+  </si>
+  <si>
     <t>age</t>
   </si>
   <si>
@@ -78,6 +90,18 @@
   </si>
   <si>
     <t>diff</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>bloodflowEst</t>
+  </si>
+  <si>
+    <t>CLEst</t>
+  </si>
+  <si>
+    <t>GEEst</t>
   </si>
   <si>
     <t>tyg1954</t>
@@ -93,8 +117,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -203,7 +228,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -222,6 +247,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -296,7 +325,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -348,7 +377,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -357,34 +386,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16.2722065</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.9614815</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.5558925</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.5335695</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.594688</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.3977035</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.502245</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.1196625</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.16717</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.419397</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -452,7 +481,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -562,7 +591,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -649,11 +678,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="86853826"/>
-        <c:axId val="8010857"/>
+        <c:axId val="77270754"/>
+        <c:axId val="39174202"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86853826"/>
+        <c:axId val="77270754"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -691,12 +720,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="8010857"/>
+        <c:crossAx val="39174202"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="15"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8010857"/>
+        <c:axId val="39174202"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -734,7 +763,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="86853826"/>
+        <c:crossAx val="77270754"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="50"/>
       </c:valAx>
@@ -774,16 +803,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57240</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>5760</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>373320</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>321840</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -798,8 +827,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8997840" y="177120"/>
-          <a:ext cx="6005880" cy="3829320"/>
+          <a:off x="12276360" y="264600"/>
+          <a:ext cx="6005520" cy="3828960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -813,16 +842,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>717480</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>407880</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>787320</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>477360</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -830,8 +859,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8032680" y="4274640"/>
-        <a:ext cx="5759280" cy="3292560"/>
+        <a:off x="12678480" y="4319640"/>
+        <a:ext cx="5758920" cy="3291840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -849,15 +878,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="A16:K26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="D16:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1036,7 +1067,7 @@
         <v>0.75486857</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -1070,8 +1101,20 @@
       <c r="K15" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
@@ -1082,39 +1125,51 @@
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>17</v>
@@ -1147,16 +1202,31 @@
         <f aca="false">G17-I17</f>
         <v>1.63992722222222</v>
       </c>
+      <c r="L17" s="0" t="n">
+        <f aca="false">(G17-I17)/G17</f>
+        <v>0.209109666169088</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <f aca="false">M17*L17</f>
+        <v>355.486432487449</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <f aca="false">N17*G17/1000</f>
+        <v>2.78787627777777</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>17</v>
@@ -1189,16 +1259,31 @@
         <f aca="false">G18-I18</f>
         <v>1.43027722222222</v>
       </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">(G18-I18)/G18</f>
+        <v>0.225526331972437</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <f aca="false">M18*L18</f>
+        <v>383.394764353142</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <f aca="false">N18*G18/1000</f>
+        <v>2.43147127777777</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>17</v>
@@ -1231,16 +1316,31 @@
         <f aca="false">G19-I19</f>
         <v>1.77340944444444</v>
       </c>
+      <c r="L19" s="0" t="n">
+        <f aca="false">(G19-I19)/G19</f>
+        <v>0.323048675435835</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <f aca="false">M19*L19</f>
+        <v>549.182748240919</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <f aca="false">N19*G19/1000</f>
+        <v>3.01479605555557</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>17</v>
@@ -1273,16 +1373,31 @@
         <f aca="false">G20-I20</f>
         <v>1.54458222222222</v>
       </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">(G20-I20)/G20</f>
+        <v>0.351848800517754</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <f aca="false">M20*L20</f>
+        <v>598.142960880181</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <f aca="false">N20*G20/1000</f>
+        <v>2.62578977777777</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>17</v>
@@ -1315,16 +1430,31 @@
         <f aca="false">G21-I21</f>
         <v>1.50666144444444</v>
       </c>
+      <c r="L21" s="0" t="n">
+        <f aca="false">(G21-I21)/G21</f>
+        <v>0.435194765577322</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <f aca="false">M21*L21</f>
+        <v>739.831101481447</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <f aca="false">N21*G21/1000</f>
+        <v>2.56132445555555</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>17</v>
@@ -1357,16 +1487,31 @@
         <f aca="false">G22-I22</f>
         <v>1.43038594444444</v>
       </c>
+      <c r="L22" s="0" t="n">
+        <f aca="false">(G22-I22)/G22</f>
+        <v>0.55207042380664</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <f aca="false">M22*L22</f>
+        <v>938.519720471288</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <f aca="false">N22*G22/1000</f>
+        <v>2.43165610555555</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>17</v>
@@ -1399,16 +1544,31 @@
         <f aca="false">G23-I23</f>
         <v>1.60168041111111</v>
       </c>
+      <c r="L23" s="0" t="n">
+        <f aca="false">(G23-I23)/G23</f>
+        <v>0.920959553036577</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <f aca="false">M23*L23</f>
+        <v>1565.63124016218</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <f aca="false">N23*G23/1000</f>
+        <v>2.7228566988889</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>17</v>
@@ -1441,16 +1601,31 @@
         <f aca="false">G24-I24</f>
         <v>1.16309534444444</v>
       </c>
+      <c r="L24" s="0" t="n">
+        <f aca="false">(G24-I24)/G24</f>
+        <v>0.917063709326812</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <f aca="false">M24*L24</f>
+        <v>1559.00830585558</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <f aca="false">N24*G24/1000</f>
+        <v>1.97726208555555</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>17</v>
@@ -1483,16 +1658,31 @@
         <f aca="false">G25-I25</f>
         <v>0.591244979444444</v>
       </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">(G25-I25)/G25</f>
+        <v>0.973430239971228</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="N25" s="5" t="n">
+        <f aca="false">M25*L25</f>
+        <v>1654.83140795109</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <f aca="false">N25*G25/1000</f>
+        <v>1.00511646505556</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>17</v>
@@ -1524,6 +1714,21 @@
       <c r="K26" s="0" t="n">
         <f aca="false">G26-I26</f>
         <v>0.476722857222222</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <f aca="false">(G26-I26)/G26</f>
+        <v>0.919143286974554</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="N26" s="5" t="n">
+        <f aca="false">M26*L26</f>
+        <v>1562.54358785674</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <f aca="false">N26*G26/1000</f>
+        <v>0.810428857277778</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
